--- a/DongXanh/WebContent/WEB-INF/template/excel/country.xlsx
+++ b/DongXanh/WebContent/WEB-INF/template/excel/country.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="15015" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -731,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +742,7 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -813,7 +814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -821,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -829,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -909,7 +910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -925,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -933,7 +934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -941,7 +942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -965,7 +966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -997,7 +998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1237,10 +1238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
+    <row r="63" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
